--- a/StructureDefinition-ext-R5-MeasureReport.group.xlsx
+++ b/StructureDefinition-ext-R5-MeasureReport.group.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4832" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4832" uniqueCount="403">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -451,7 +451,7 @@
     <t>Example of measure groups.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-measure-group-example-for-R4|0.0.1-snapshot-3</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-measure-group-example-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:subject</t>
@@ -486,7 +486,7 @@
     <t>Extension.extension:subject.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-CareTeam|0.0.1-snapshot-3|CareTeam|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|0.0.1-snapshot-3|Device|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Group|0.0.1-snapshot-3|Group|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-HealthcareService|0.0.1-snapshot-3|HealthcareService|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Location|0.0.1-snapshot-3|Location|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|0.0.1-snapshot-3|Patient|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|0.0.1-snapshot-3|Practitioner|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|0.0.1-snapshot-3|PractitionerRole|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|0.0.1-snapshot-3|RelatedPerson|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-CareTeam|CareTeam|http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|Device|http://hl7.org/fhir/5.0/StructureDefinition/profile-Group|Group|http://hl7.org/fhir/5.0/StructureDefinition/profile-HealthcareService|HealthcareService|http://hl7.org/fhir/5.0/StructureDefinition/profile-Location|Location|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization|http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|Patient|http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|Practitioner|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|PractitionerRole|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|RelatedPerson)
 </t>
   </si>
   <si>
@@ -580,15 +580,6 @@
     <t>Extension.extension:population.extension:code.value[x]</t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>The type of population (e.g. initial, numerator, denominator, etc.).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-measure-population-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:population.extension:count</t>
   </si>
   <si>
@@ -655,7 +646,7 @@
     <t>Extension.extension:population.extension:subjectResults.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-List|0.0.1-snapshot-3|List|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-List|List)
 </t>
   </si>
   <si>
@@ -694,7 +685,7 @@
     <t>Extension.extension:population.extension:subjectReport.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-MeasureReport|0.0.1-snapshot-3|MeasureReport|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-MeasureReport|MeasureReport)
 </t>
   </si>
   <si>
@@ -733,7 +724,7 @@
     <t>Extension.extension:population.extension:subjects.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Group|0.0.1-snapshot-3|Group|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Group|Group)
 </t>
   </si>
   <si>
@@ -872,7 +863,7 @@
     <t>Meaning of the stratifier.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-measure-stratifier-example-for-R4|0.0.1-snapshot-3</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-measure-stratifier-example-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:stratifier.extension:stratum</t>
@@ -944,7 +935,7 @@
 QuantityRangeReference</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-measurereport-stratifier-value-example-for-R4|0.0.1-snapshot-3</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-measurereport-stratifier-value-example-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:stratifier.extension:stratum.extension:component</t>
@@ -1641,8 +1632,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="54.0859375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="89.74609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="23.703125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="71.25390625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -4963,13 +4954,13 @@
         <v>77</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>181</v>
+        <v>77</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>77</v>
@@ -5007,13 +4998,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>77</v>
@@ -5038,14 +5029,14 @@
         <v>93</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -5114,7 +5105,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>162</v>
@@ -5217,7 +5208,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>164</v>
@@ -5322,7 +5313,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>166</v>
@@ -5365,7 +5356,7 @@
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>77</v>
@@ -5427,7 +5418,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>169</v>
@@ -5453,13 +5444,13 @@
         <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5530,13 +5521,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>77</v>
@@ -5561,14 +5552,14 @@
         <v>93</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -5637,7 +5628,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>162</v>
@@ -5740,7 +5731,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>164</v>
@@ -5845,7 +5836,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>166</v>
@@ -5888,7 +5879,7 @@
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="S41" t="s" s="2">
         <v>77</v>
@@ -5950,7 +5941,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>169</v>
@@ -5976,13 +5967,13 @@
         <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6053,13 +6044,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>77</v>
@@ -6084,16 +6075,16 @@
         <v>93</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="O43" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -6162,7 +6153,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>162</v>
@@ -6265,7 +6256,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>164</v>
@@ -6370,7 +6361,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>166</v>
@@ -6413,7 +6404,7 @@
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>77</v>
@@ -6475,7 +6466,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>169</v>
@@ -6501,16 +6492,16 @@
         <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -6580,13 +6571,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>77</v>
@@ -6611,16 +6602,16 @@
         <v>93</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="O48" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -6689,7 +6680,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>162</v>
@@ -6792,7 +6783,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>164</v>
@@ -6897,7 +6888,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>166</v>
@@ -6940,7 +6931,7 @@
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="S51" t="s" s="2">
         <v>77</v>
@@ -7002,7 +6993,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>169</v>
@@ -7028,16 +7019,16 @@
         <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7107,7 +7098,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>113</v>
@@ -7150,7 +7141,7 @@
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>77</v>
@@ -7212,7 +7203,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>122</v>
@@ -7238,13 +7229,13 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7315,13 +7306,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>77</v>
@@ -7346,14 +7337,14 @@
         <v>93</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -7422,7 +7413,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>105</v>
@@ -7525,7 +7516,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>107</v>
@@ -7630,7 +7621,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>113</v>
@@ -7673,7 +7664,7 @@
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>77</v>
@@ -7735,7 +7726,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>122</v>
@@ -7761,13 +7752,13 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -7838,13 +7829,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>77</v>
@@ -7869,14 +7860,14 @@
         <v>93</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>77</v>
@@ -7945,7 +7936,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>105</v>
@@ -8048,7 +8039,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>107</v>
@@ -8151,7 +8142,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>107</v>
@@ -8182,14 +8173,14 @@
         <v>93</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>77</v>
@@ -8258,7 +8249,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>162</v>
@@ -8361,7 +8352,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>164</v>
@@ -8466,7 +8457,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>166</v>
@@ -8509,7 +8500,7 @@
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="S66" t="s" s="2">
         <v>77</v>
@@ -8571,7 +8562,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>169</v>
@@ -8600,10 +8591,10 @@
         <v>87</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -8674,7 +8665,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>107</v>
@@ -8705,14 +8696,14 @@
         <v>93</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>77</v>
@@ -8781,7 +8772,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>162</v>
@@ -8884,7 +8875,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>164</v>
@@ -8989,7 +8980,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>166</v>
@@ -9032,7 +9023,7 @@
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="S71" t="s" s="2">
         <v>77</v>
@@ -9094,7 +9085,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>169</v>
@@ -9123,10 +9114,10 @@
         <v>135</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -9156,10 +9147,10 @@
         <v>136</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>77</v>
@@ -9197,13 +9188,13 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D73" t="s" s="2">
         <v>77</v>
@@ -9228,14 +9219,14 @@
         <v>93</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>77</v>
@@ -9304,7 +9295,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>162</v>
@@ -9407,7 +9398,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>164</v>
@@ -9510,13 +9501,13 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>164</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D76" t="s" s="2">
         <v>77</v>
@@ -9541,14 +9532,14 @@
         <v>93</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>77</v>
@@ -9617,10 +9608,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -9720,10 +9711,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -9825,10 +9816,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -9868,7 +9859,7 @@
       </c>
       <c r="Q79" s="2"/>
       <c r="R79" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="S79" t="s" s="2">
         <v>77</v>
@@ -9930,10 +9921,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -9956,13 +9947,13 @@
         <v>77</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -9993,7 +9984,7 @@
       </c>
       <c r="Y80" s="2"/>
       <c r="Z80" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>77</v>
@@ -10031,13 +10022,13 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>164</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D81" t="s" s="2">
         <v>77</v>
@@ -10062,14 +10053,14 @@
         <v>93</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>77</v>
@@ -10138,10 +10129,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -10241,10 +10232,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -10252,7 +10243,7 @@
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>79</v>
@@ -10344,10 +10335,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C84" t="s" s="2">
         <v>100</v>
@@ -10375,14 +10366,14 @@
         <v>93</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>77</v>
@@ -10451,10 +10442,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -10554,10 +10545,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -10659,10 +10650,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -10702,7 +10693,7 @@
       </c>
       <c r="Q87" s="2"/>
       <c r="R87" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="S87" t="s" s="2">
         <v>77</v>
@@ -10764,10 +10755,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -10793,10 +10784,10 @@
         <v>87</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -10867,10 +10858,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C89" t="s" s="2">
         <v>126</v>
@@ -10898,14 +10889,14 @@
         <v>93</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>77</v>
@@ -10974,10 +10965,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -11077,10 +11068,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -11182,10 +11173,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -11225,7 +11216,7 @@
       </c>
       <c r="Q92" s="2"/>
       <c r="R92" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="S92" t="s" s="2">
         <v>77</v>
@@ -11287,10 +11278,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -11316,10 +11307,10 @@
         <v>135</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -11349,10 +11340,10 @@
         <v>136</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>77</v>
@@ -11390,13 +11381,13 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D94" t="s" s="2">
         <v>77</v>
@@ -11421,14 +11412,14 @@
         <v>93</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>77</v>
@@ -11497,10 +11488,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -11600,10 +11591,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -11705,10 +11696,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -11748,7 +11739,7 @@
       </c>
       <c r="Q97" s="2"/>
       <c r="R97" t="s" s="2">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="S97" t="s" s="2">
         <v>77</v>
@@ -11810,10 +11801,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -11836,13 +11827,13 @@
         <v>77</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -11873,7 +11864,7 @@
       </c>
       <c r="Y98" s="2"/>
       <c r="Z98" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AA98" t="s" s="2">
         <v>77</v>
@@ -11911,10 +11902,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -11954,7 +11945,7 @@
       </c>
       <c r="Q99" s="2"/>
       <c r="R99" t="s" s="2">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="S99" t="s" s="2">
         <v>77</v>
@@ -12016,10 +12007,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -12042,13 +12033,13 @@
         <v>77</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -12119,7 +12110,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>164</v>
@@ -12150,14 +12141,14 @@
         <v>93</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>77</v>
@@ -12226,10 +12217,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -12329,10 +12320,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -12432,10 +12423,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C104" t="s" s="2">
         <v>100</v>
@@ -12470,7 +12461,7 @@
       </c>
       <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="P104" t="s" s="2">
         <v>77</v>
@@ -12539,10 +12530,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -12642,10 +12633,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -12747,10 +12738,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -12790,7 +12781,7 @@
       </c>
       <c r="Q107" s="2"/>
       <c r="R107" t="s" s="2">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="S107" t="s" s="2">
         <v>77</v>
@@ -12852,10 +12843,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -12955,10 +12946,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C109" t="s" s="2">
         <v>126</v>
@@ -12993,7 +12984,7 @@
       </c>
       <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>77</v>
@@ -13062,10 +13053,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -13165,10 +13156,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -13270,10 +13261,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -13313,7 +13304,7 @@
       </c>
       <c r="Q112" s="2"/>
       <c r="R112" t="s" s="2">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="S112" t="s" s="2">
         <v>77</v>
@@ -13375,10 +13366,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -13434,13 +13425,13 @@
         <v>77</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="Z113" t="s" s="2">
-        <v>181</v>
+        <v>77</v>
       </c>
       <c r="AA113" t="s" s="2">
         <v>77</v>
@@ -13478,13 +13469,13 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C114" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D114" t="s" s="2">
         <v>77</v>
@@ -13509,14 +13500,14 @@
         <v>93</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" t="s" s="2">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>77</v>
@@ -13585,10 +13576,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -13688,10 +13679,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -13793,10 +13784,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -13836,7 +13827,7 @@
       </c>
       <c r="Q117" s="2"/>
       <c r="R117" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="S117" t="s" s="2">
         <v>77</v>
@@ -13898,10 +13889,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -13924,13 +13915,13 @@
         <v>77</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" s="2"/>
@@ -14001,13 +13992,13 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C119" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D119" t="s" s="2">
         <v>77</v>
@@ -14032,14 +14023,14 @@
         <v>93</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" t="s" s="2">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="P119" t="s" s="2">
         <v>77</v>
@@ -14108,10 +14099,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -14211,10 +14202,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -14316,10 +14307,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -14359,7 +14350,7 @@
       </c>
       <c r="Q122" s="2"/>
       <c r="R122" t="s" s="2">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="S122" t="s" s="2">
         <v>77</v>
@@ -14421,10 +14412,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -14447,13 +14438,13 @@
         <v>77</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" s="2"/>
@@ -14524,13 +14515,13 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C124" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D124" t="s" s="2">
         <v>77</v>
@@ -14555,16 +14546,16 @@
         <v>93</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O124" t="s" s="2">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="P124" t="s" s="2">
         <v>77</v>
@@ -14633,10 +14624,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -14736,10 +14727,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -14841,10 +14832,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -14884,7 +14875,7 @@
       </c>
       <c r="Q127" s="2"/>
       <c r="R127" t="s" s="2">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="S127" t="s" s="2">
         <v>77</v>
@@ -14946,10 +14937,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -14972,16 +14963,16 @@
         <v>77</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O128" s="2"/>
       <c r="P128" t="s" s="2">
@@ -15051,13 +15042,13 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C129" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D129" t="s" s="2">
         <v>77</v>
@@ -15082,16 +15073,16 @@
         <v>93</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="N129" t="s" s="2">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="O129" t="s" s="2">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="P129" t="s" s="2">
         <v>77</v>
@@ -15160,10 +15151,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -15263,10 +15254,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -15368,10 +15359,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -15411,7 +15402,7 @@
       </c>
       <c r="Q132" s="2"/>
       <c r="R132" t="s" s="2">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="S132" t="s" s="2">
         <v>77</v>
@@ -15473,10 +15464,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -15499,16 +15490,16 @@
         <v>77</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="N133" t="s" s="2">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="O133" s="2"/>
       <c r="P133" t="s" s="2">
@@ -15578,10 +15569,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -15621,7 +15612,7 @@
       </c>
       <c r="Q134" s="2"/>
       <c r="R134" t="s" s="2">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="S134" t="s" s="2">
         <v>77</v>
@@ -15683,10 +15674,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -15709,13 +15700,13 @@
         <v>77</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="N135" s="2"/>
       <c r="O135" s="2"/>
@@ -15786,13 +15777,13 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B136" t="s" s="2">
         <v>164</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D136" t="s" s="2">
         <v>77</v>
@@ -15817,14 +15808,14 @@
         <v>93</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="N136" s="2"/>
       <c r="O136" t="s" s="2">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="P136" t="s" s="2">
         <v>77</v>
@@ -15893,10 +15884,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -15996,10 +15987,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -16101,10 +16092,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -16144,7 +16135,7 @@
       </c>
       <c r="Q139" s="2"/>
       <c r="R139" t="s" s="2">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="S139" t="s" s="2">
         <v>77</v>
@@ -16206,10 +16197,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -16232,13 +16223,13 @@
         <v>77</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="N140" s="2"/>
       <c r="O140" s="2"/>
@@ -16309,7 +16300,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B141" t="s" s="2">
         <v>166</v>
@@ -16352,7 +16343,7 @@
       </c>
       <c r="Q141" s="2"/>
       <c r="R141" t="s" s="2">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="S141" t="s" s="2">
         <v>77</v>
@@ -16414,7 +16405,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B142" t="s" s="2">
         <v>169</v>
@@ -16440,13 +16431,13 @@
         <v>77</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="N142" s="2"/>
       <c r="O142" s="2"/>
@@ -16517,7 +16508,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B143" t="s" s="2">
         <v>113</v>
@@ -16560,7 +16551,7 @@
       </c>
       <c r="Q143" s="2"/>
       <c r="R143" t="s" s="2">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="S143" t="s" s="2">
         <v>77</v>
@@ -16622,7 +16613,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B144" t="s" s="2">
         <v>122</v>
@@ -16648,13 +16639,13 @@
         <v>77</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="N144" s="2"/>
       <c r="O144" s="2"/>
@@ -16856,13 +16847,13 @@
         <v>77</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="N146" s="2"/>
       <c r="O146" s="2"/>
